--- a/biology/Médecine/American_Neurological_Association/American_Neurological_Association.xlsx
+++ b/biology/Médecine/American_Neurological_Association/American_Neurological_Association.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'American Neurological Association (ANA) ou Association américaine de neurologie est une société savante — fondée en juin 1875 — composée de neurologues et neuroscientifiques. Ses objectifs visent à former des neurologues et médecins en neurosciences, à élargir le panel de la compréhension inhérente aux maladies du système nerveux et à en explorer le champ des perspectives thérapeutiques[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'American Neurological Association (ANA) ou Association américaine de neurologie est une société savante — fondée en juin 1875 — composée de neurologues et neuroscientifiques. Ses objectifs visent à former des neurologues et médecins en neurosciences, à élargir le panel de la compréhension inhérente aux maladies du système nerveux et à en explorer le champ des perspectives thérapeutiques.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Présidents</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 James Stewart Jewell (1875–1879)
 Frank T. Miles (1880)
 Roberts Bartholow (1881)
-William Alexander Hammond[2] (1882)
+William Alexander Hammond (1882)
 Robert T. Edes (1883)
 Isaac Ott (1884)
 Burt G. Wilder (1885)
@@ -537,7 +551,7 @@
 James Hendrie Lloyd (1899)
 Edward D. Fisher (1900)
 George Lincoln Walton (1901)
-Joseph Collins (en)[3] (1902)
+Joseph Collins (en) (1902)
 James W. Putnam (1903)
 Frank R. Fry (1904)
 William Gibson Spiller (1905)
